--- a/Produce/xls/BuffConfig.xlsx
+++ b/Produce/xls/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>BuffID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>BuffName</t>
   </si>
   <si>
+    <t>HandleState</t>
+  </si>
+  <si>
     <t>DescArray</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Buff名称</t>
   </si>
   <si>
+    <t>生效阶段</t>
+  </si>
+  <si>
     <t>描述数组</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>恢复血量</t>
   </si>
   <si>
+    <t>伤害增加固定值</t>
+  </si>
+  <si>
     <t>伤害降低</t>
   </si>
   <si>
@@ -92,6 +101,39 @@
   </si>
   <si>
     <t>生命值降低</t>
+  </si>
+  <si>
+    <t>开局直接攻击</t>
+  </si>
+  <si>
+    <t>伤害增幅固定值</t>
+  </si>
+  <si>
+    <t>威压，受到伤害小于</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>威压倍率，受到伤害护甲</t>
+  </si>
+  <si>
+    <t>威压</t>
+  </si>
+  <si>
+    <t>荆棘，反伤甲</t>
+  </si>
+  <si>
+    <t>威压倍率</t>
+  </si>
+  <si>
+    <t>回合结束回复固定生命</t>
+  </si>
+  <si>
+    <t>荆棘</t>
+  </si>
+  <si>
+    <t>回复</t>
   </si>
 </sst>
 </file>
@@ -99,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -121,15 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,23 +180,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,88 +202,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,8 +254,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,19 +328,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +424,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,73 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,73 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,67 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +550,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +608,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,25 +1130,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="4" width="28.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,37 +1167,43 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,25 +1211,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
@@ -1195,22 +1246,25 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
@@ -1224,22 +1278,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
@@ -1253,22 +1310,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>21</v>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
@@ -1276,28 +1336,31 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>1005</v>
       </c>
@@ -1311,13 +1374,199 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/BuffConfig.xlsx
+++ b/Produce/xls/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>BuffID</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>生命值增加百分比</t>
+  </si>
+  <si>
+    <t>恢复</t>
   </si>
   <si>
     <t>恢复血量</t>
@@ -141,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -163,6 +166,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -171,6 +233,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,11 +287,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,119 +309,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -328,67 +331,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,115 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,15 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,15 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,21 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,8 +573,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +613,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,145 +630,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1136,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1319,13 +1322,13 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1351,13 +1354,13 @@
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1383,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2">
         <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1415,13 +1418,13 @@
         <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1447,13 +1450,13 @@
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2">
         <v>6</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -1479,13 +1482,13 @@
         <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2">
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1502,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -1511,13 +1514,13 @@
         <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2">
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>

--- a/Produce/xls/BuffConfig.xlsx
+++ b/Produce/xls/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>BuffID</t>
   </si>
@@ -34,7 +34,7 @@
     <t>HandleState</t>
   </si>
   <si>
-    <t>DescArray</t>
+    <t>#DescArray</t>
   </si>
   <si>
     <t>#屏蔽不转</t>
@@ -136,7 +136,19 @@
     <t>荆棘</t>
   </si>
   <si>
+    <t>不屈，Boss死亡后仍会造成伤害</t>
+  </si>
+  <si>
     <t>回复</t>
+  </si>
+  <si>
+    <t>凋零，玩家每出一张必须丢弃一张</t>
+  </si>
+  <si>
+    <t>不屈</t>
+  </si>
+  <si>
+    <t>凋零</t>
   </si>
 </sst>
 </file>
@@ -144,8 +156,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -181,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,54 +207,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,11 +253,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,41 +284,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -331,43 +343,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,139 +505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +534,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,32 +567,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,11 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,15 +634,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,7 +645,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,130 +654,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,7 +1182,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1523,7 +1535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>1010</v>
       </c>
@@ -1548,8 +1560,14 @@
       <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="I13" s="2">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>1011</v>
       </c>
@@ -1563,13 +1581,59 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/BuffConfig.xlsx
+++ b/Produce/xls/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>BuffID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>HandleState</t>
   </si>
   <si>
+    <t>CanAddBuff</t>
+  </si>
+  <si>
     <t>#DescArray</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>生效阶段</t>
   </si>
   <si>
+    <t>可否叠加</t>
+  </si>
+  <si>
     <t>描述数组</t>
   </si>
   <si>
@@ -148,7 +154,7 @@
     <t>不屈</t>
   </si>
   <si>
-    <t>凋零</t>
+    <t>暴政</t>
   </si>
 </sst>
 </file>
@@ -156,9 +162,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -178,6 +184,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -192,56 +228,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,26 +275,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +291,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -292,31 +313,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,31 +349,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,25 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,121 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +558,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -569,17 +599,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -609,28 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,25 +1151,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="4" width="28.25" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19.8916666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="19.8916666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,43 +1188,49 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,28 +1238,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
@@ -1261,25 +1276,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
+      <c r="G4" s="2">
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
@@ -1293,25 +1311,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
+      <c r="G5" s="2">
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
@@ -1319,31 +1340,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
@@ -1357,25 +1381,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
+      <c r="G7" s="2">
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>1005</v>
       </c>
@@ -1389,25 +1416,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
+      <c r="G8" s="2">
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2">
         <v>4</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>1006</v>
       </c>
@@ -1421,25 +1451,28 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
+      <c r="G9" s="2">
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="2">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>1007</v>
       </c>
@@ -1453,25 +1486,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
+      <c r="G10" s="2">
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>34</v>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>1008</v>
       </c>
@@ -1485,25 +1521,28 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
+      <c r="G11" s="2">
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2">
         <v>7</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>36</v>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>1009</v>
       </c>
@@ -1517,25 +1556,28 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
+      <c r="G12" s="2">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="2">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2">
         <v>8</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>38</v>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>1010</v>
       </c>
@@ -1549,25 +1591,28 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>19</v>
+      <c r="G13" s="2">
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
         <v>9</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>40</v>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>1011</v>
       </c>
@@ -1581,22 +1626,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>42</v>
+      <c r="K14" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>1012</v>
       </c>
@@ -1610,13 +1658,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
       </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>1013</v>
       </c>
@@ -1630,10 +1681,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/BuffConfig.xlsx
+++ b/Produce/xls/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfig" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,6 +184,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -192,13 +206,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -208,29 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,29 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -275,9 +266,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,13 +297,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -306,21 +321,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -349,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,40 +543,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -597,13 +569,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,15 +640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="2">
         <v>0.3</v>
@@ -1620,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>

--- a/Produce/xls/BuffConfig.xlsx
+++ b/Produce/xls/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>BuffID</t>
   </si>
@@ -145,7 +145,7 @@
     <t>不屈，Boss死亡后仍会造成伤害</t>
   </si>
   <si>
-    <t>回复</t>
+    <t>回复I</t>
   </si>
   <si>
     <t>凋零，玩家每出一张必须丢弃一张</t>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>暴政</t>
+  </si>
+  <si>
+    <t>回复II</t>
+  </si>
+  <si>
+    <t>炼狱I</t>
+  </si>
+  <si>
+    <t>炼狱II</t>
+  </si>
+  <si>
+    <t>深渊</t>
+  </si>
+  <si>
+    <t>抵挡8以上伤害</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +210,59 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,6 +274,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,81 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -297,14 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -313,13 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -327,6 +328,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -349,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +558,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,30 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -602,17 +612,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +646,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1515,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1524,7 +1539,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1620,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1688,6 +1703,170 @@
       </c>
       <c r="G16" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Produce/xls/BuffConfig.xlsx
+++ b/Produce/xls/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12465"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>BuffID</t>
   </si>
@@ -127,6 +127,9 @@
     <t>威压倍率，受到伤害护甲</t>
   </si>
   <si>
+    <t>魔法装甲I</t>
+  </si>
+  <si>
     <t>威压</t>
   </si>
   <si>
@@ -169,7 +172,10 @@
     <t>深渊</t>
   </si>
   <si>
-    <t>抵挡8以上伤害</t>
+    <t>掘墓I</t>
+  </si>
+  <si>
+    <t>掘墓II</t>
   </si>
 </sst>
 </file>
@@ -178,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -200,14 +206,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +221,59 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,52 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +311,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,39 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,13 +370,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,169 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,17 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +584,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,17 +622,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -649,9 +653,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,145 +669,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1530,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1548,13 +1554,13 @@
         <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2">
         <v>7</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -1583,13 +1589,13 @@
         <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2">
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1606,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
@@ -1624,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1641,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1656,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1673,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -1696,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
@@ -1719,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1765,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1843,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>1020</v>
       </c>
@@ -1851,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1865,8 +1871,51 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>51</v>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="2">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B25" s="2">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
